--- a/data_impute_project/combinations/human/combination_4_ABCDG.xlsx
+++ b/data_impute_project/combinations/human/combination_4_ABCDG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,401 +436,516 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>H 4</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>-20.2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>11.2</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-14.7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-6.2</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>H 17</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>-19.9</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>10.4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-13.4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>H 66a</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>-19.7</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>11.3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-14.9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-5.4</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>H 72</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>-20.1</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>11.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-15.5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-4.9</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>H 105</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>-20.2</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>11.4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-11.6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-7.2</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>H 106a</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>-19.9</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>12.1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-14.8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-7.2</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>H 154</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>-19.7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>12.4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-14.8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-5.8</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>H 269</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>-19.6</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>13.1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-14.1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-7</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>H 270</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>-19.8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>12.9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-15.6</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-6.4</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>H 271</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>-19.6</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>11.7</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>-14.5</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>-7.7</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>H 274</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>-19.8</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>10</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>-13.6</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-4.8</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>H 275</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>-19.9</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>10.3</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>-14.6</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-5.9</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>H 1902 Grube 56 I-IV</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>-19.3</v>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>12</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>-13.5</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-6.8</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>H 1904 III/1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>-19.7</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>11</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>-13.6</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-7</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>H 1912 XIII/3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>-20.1</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>12</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>-14.9</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-6</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>H 1912 XIV.3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>-20.2</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>11.4</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>-14.2</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-6.5</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>H 1936 DIV</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>-19.9</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>11</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>-14.7</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-6.1</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>H 1968 Sk 4</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>-20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>10</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>-14.8</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-6.9</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>H 1968 Sk 6</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>-20.8</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>10</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>-15.5</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-6.4</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>H 12301 K I/1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>-19.2</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="n">
         <v>13.3</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>-15</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>-6</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>H 12370 K IX/6</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>-19.9</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>12.4</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>-13.3</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-5.4</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>H 12640 K XIII/3</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>-19.8</v>
       </c>
-      <c r="B23" t="n">
+      <c r="C23" t="n">
         <v>11.7</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>-13.5</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-7.5</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.71</v>
       </c>
     </row>
